--- a/Género/Violencia contra Mujer/Denuncias ante la DT por Acoso Sexual (laboral).xlsx
+++ b/Género/Violencia contra Mujer/Denuncias ante la DT por Acoso Sexual (laboral).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Género\Violencia contra Mujer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C680BD-B0D9-460C-8EC7-C5E850DD95EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CAF54D5-F59D-4176-BA3B-0E839FA0DA06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10830" yWindow="11850" windowWidth="12450" windowHeight="1875" xr2:uid="{449945BC-B8A0-476B-919E-94C096CCACCE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{449945BC-B8A0-476B-919E-94C096CCACCE}"/>
   </bookViews>
   <sheets>
     <sheet name="Acoso Sexual Laboral" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="28">
   <si>
     <t>Cod_Región</t>
   </si>
@@ -100,6 +100,24 @@
   </si>
   <si>
     <t>Primer Semestre</t>
+  </si>
+  <si>
+    <t>id_producto</t>
+  </si>
+  <si>
+    <t>id_categoria</t>
+  </si>
+  <si>
+    <t>Delitos Contra la Intimidad y la Libertad</t>
+  </si>
+  <si>
+    <t>Acoso Laboral</t>
+  </si>
+  <si>
+    <t>Producto</t>
+  </si>
+  <si>
+    <t>Categoría</t>
   </si>
 </sst>
 </file>
@@ -152,6 +170,24 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{94E389AB-560E-4F15-8E08-427AFFD9B150}" name="Acoso_Sexual_Laboral_Denuncias_DT" displayName="Acoso_Sexual_Laboral_Denuncias_DT" ref="A1:I17" totalsRowShown="0">
+  <autoFilter ref="A1:I17" xr:uid="{94E389AB-560E-4F15-8E08-427AFFD9B150}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{9517070C-8413-4A01-9F87-4D497597B301}" name="Cod_Región"/>
+    <tableColumn id="2" xr3:uid="{F8EF60D7-551D-472F-B3BA-312233B29F03}" name="Región"/>
+    <tableColumn id="3" xr3:uid="{A43AF24E-C5C6-406D-95EF-95B2AD53FD70}" name="Año"/>
+    <tableColumn id="4" xr3:uid="{2BBD5F38-ED6C-4853-B713-01C5C0E4308A}" name="Trimestre"/>
+    <tableColumn id="5" xr3:uid="{639F7DC2-0457-4116-9D20-134A14871D14}" name="N° Denuncias"/>
+    <tableColumn id="6" xr3:uid="{688863C0-59CE-45D2-A7E8-C762200439EE}" name="id_producto"/>
+    <tableColumn id="7" xr3:uid="{27B9B491-EB65-42DD-8F08-6ADE0A20C925}" name="Producto"/>
+    <tableColumn id="8" xr3:uid="{35618DDC-6E23-4D8B-805A-C7F12C09EAF5}" name="id_categoria"/>
+    <tableColumn id="9" xr3:uid="{FCD2B31F-DFD0-481A-9B17-C597BCD8367F}" name="Categoría"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -451,15 +487,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC19FA38-772B-4E05-831A-EA3BA0659BB1}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="I8" sqref="I7:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -475,8 +520,20 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -492,8 +549,20 @@
       <c r="E2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>270106</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2">
+        <v>270106002</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -509,8 +578,20 @@
       <c r="E3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>270106</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3">
+        <v>270106002</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -526,8 +607,20 @@
       <c r="E4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>270106</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4">
+        <v>270106002</v>
+      </c>
+      <c r="I4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -543,8 +636,20 @@
       <c r="E5">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>270106</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5">
+        <v>270106002</v>
+      </c>
+      <c r="I5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -560,8 +665,20 @@
       <c r="E6">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>270106</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6">
+        <v>270106002</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -577,8 +694,20 @@
       <c r="E7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>270106</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7">
+        <v>270106002</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -594,8 +723,20 @@
       <c r="E8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>270106</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8">
+        <v>270106002</v>
+      </c>
+      <c r="I8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -611,8 +752,20 @@
       <c r="E9">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>270106</v>
+      </c>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9">
+        <v>270106002</v>
+      </c>
+      <c r="I9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -628,8 +781,20 @@
       <c r="E10">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>270106</v>
+      </c>
+      <c r="G10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10">
+        <v>270106002</v>
+      </c>
+      <c r="I10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -645,8 +810,20 @@
       <c r="E11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>270106</v>
+      </c>
+      <c r="G11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11">
+        <v>270106002</v>
+      </c>
+      <c r="I11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -662,8 +839,20 @@
       <c r="E12">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>270106</v>
+      </c>
+      <c r="G12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12">
+        <v>270106002</v>
+      </c>
+      <c r="I12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -679,8 +868,20 @@
       <c r="E13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>270106</v>
+      </c>
+      <c r="G13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13">
+        <v>270106002</v>
+      </c>
+      <c r="I13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -696,8 +897,20 @@
       <c r="E14">
         <v>62</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>270106</v>
+      </c>
+      <c r="G14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14">
+        <v>270106002</v>
+      </c>
+      <c r="I14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -713,8 +926,20 @@
       <c r="E15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>270106</v>
+      </c>
+      <c r="G15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15">
+        <v>270106002</v>
+      </c>
+      <c r="I15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -730,8 +955,20 @@
       <c r="E16">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>270106</v>
+      </c>
+      <c r="G16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16">
+        <v>270106002</v>
+      </c>
+      <c r="I16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -747,8 +984,24 @@
       <c r="E17">
         <v>2</v>
       </c>
+      <c r="F17">
+        <v>270106</v>
+      </c>
+      <c r="G17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17">
+        <v>270106002</v>
+      </c>
+      <c r="I17" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>